--- a/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8361916811543459</v>
+        <v>-0.7617589652830858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.869210980731449</v>
+        <v>-2.754355073247475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.357153110444715</v>
+        <v>-6.275203406450956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.76783109129243</v>
+        <v>-10.48959426920653</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.901232926299498</v>
+        <v>-2.802923730109017</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.791473890282551</v>
+        <v>-5.918171086818443</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.688491350792305</v>
+        <v>3.738988401423749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5415426489954852</v>
+        <v>0.6089254002144644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.940353456306028</v>
+        <v>1.757665742636405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.367450105853492</v>
+        <v>-3.262375953193082</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.822385822088066</v>
+        <v>1.827903341699124</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.748401665864425</v>
+        <v>-1.880087478662171</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3135328979272677</v>
+        <v>-0.309611427507358</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8452683698298311</v>
+        <v>-0.8617704377003292</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4380069134326357</v>
+        <v>-0.4512142568132818</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7358914375941351</v>
+        <v>-0.7120881761491112</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3463374663846507</v>
+        <v>-0.3416163096685271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.687061920821759</v>
+        <v>-0.7019540583324129</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.822844014841138</v>
+        <v>2.706456752418065</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5966110438220635</v>
+        <v>0.6403779970123684</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1935267485137725</v>
+        <v>0.1747222894873391</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3055800595817769</v>
+        <v>-0.2931819345724422</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.298838043860065</v>
+        <v>0.3061238558018625</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2617085391249849</v>
+        <v>-0.2894602062256375</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.309072653382346</v>
+        <v>-2.209219454942265</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.11452125605813</v>
+        <v>-3.101063929258982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.844095846093258</v>
+        <v>-4.822215686097152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.94029690894352</v>
+        <v>-14.03503472431255</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.622154139778479</v>
+        <v>-2.547039513501693</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.259642829890385</v>
+        <v>-7.090884818966954</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.807648897408374</v>
+        <v>1.958712825716101</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7874192313741639</v>
+        <v>0.9175574006428853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.118252477358041</v>
+        <v>4.244002588746511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-6.14623223744968</v>
+        <v>-6.147226341537117</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.078194461776538</v>
+        <v>2.442777898119374</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.946666918224906</v>
+        <v>-2.675890191163098</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4941385708331474</v>
+        <v>-0.4784752819199842</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6626375161147333</v>
+        <v>-0.6653262059909195</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2388102107341065</v>
+        <v>-0.2295030597760558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6724491849876009</v>
+        <v>-0.6701585937220289</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2261032102051241</v>
+        <v>-0.213761563282411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.60941109876793</v>
+        <v>-0.6185870370251678</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6576954953829399</v>
+        <v>0.7474057236528888</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3648861559436871</v>
+        <v>0.3970957471022011</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2551928497181727</v>
+        <v>0.2709497477822227</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3699235829818601</v>
+        <v>-0.3725627996982581</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2315343191968394</v>
+        <v>0.2619952633702647</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2937645486721068</v>
+        <v>-0.2949389844728029</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.721544086237322</v>
+        <v>-0.7882571128031512</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.817368430877835</v>
+        <v>-2.828179700615948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.957467520168952</v>
+        <v>-1.887757269689952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.600516831393078</v>
+        <v>-5.554935806029468</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9583993529570657</v>
+        <v>-0.9234493411370794</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.840059921356099</v>
+        <v>-3.810939862373105</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.693217150935898</v>
+        <v>2.564236104911211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3085353534165426</v>
+        <v>-0.4109435235631503</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.531135038968384</v>
+        <v>3.629352120939886</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.7898207745638736</v>
+        <v>-0.8088784068544272</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.500278735858502</v>
+        <v>2.448414635390377</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.119302214446155</v>
+        <v>-1.001551149618377</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2805395261826765</v>
+        <v>-0.3413561003865441</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9378884777331349</v>
+        <v>-0.9403228682455428</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2353940442849998</v>
+        <v>-0.2412863548074566</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6621411757176036</v>
+        <v>-0.6746287471951888</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1794792306437962</v>
+        <v>-0.1765657884445019</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7073321142806827</v>
+        <v>-0.7045846505649912</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.25289749791984</v>
+        <v>1.870779866765957</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1061790693356339</v>
+        <v>-0.1087585475592975</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.619905659637902</v>
+        <v>0.684981731528794</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1303741162643622</v>
+        <v>-0.1377826303570596</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.653522711492214</v>
+        <v>0.6620715940410111</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2940832497183498</v>
+        <v>-0.2610119653064629</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2051976231001953</v>
+        <v>-0.2102559220138105</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.113814221761154</v>
+        <v>-2.120223175412129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.631706066202354</v>
+        <v>-2.593264740024677</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.120005805467632</v>
+        <v>-4.489762757281647</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6444071910145155</v>
+        <v>-0.7150109006789079</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.682776906751082</v>
+        <v>-2.558529467016431</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.414320437177019</v>
+        <v>3.355854593207622</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4989556171125263</v>
+        <v>0.4929703791476867</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.825179362937241</v>
+        <v>2.751826628774908</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7375638279204291</v>
+        <v>0.3346044581585059</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.594908149343591</v>
+        <v>2.403254740043794</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2240589548583119</v>
+        <v>0.1333056350793211</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,20 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2889614299023345</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>-0.8997153289085515</v>
-      </c>
+        <v>-0.2987796814648093</v>
+      </c>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.4202113565179157</v>
+        <v>-0.4209989862492073</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6612159370514117</v>
+        <v>-0.6762271364630852</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.176360505364572</v>
+        <v>-0.2021865090047551</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6467473922103969</v>
+        <v>-0.6577204574272459</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1217,20 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7.966990880069789</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>1.881269036861899</v>
-      </c>
+        <v>6.331881139611863</v>
+      </c>
+      <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>0.7742322840739965</v>
+        <v>0.7708893512504862</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2513450640724794</v>
+        <v>0.1331935124087447</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.179349084206462</v>
+        <v>1.08948884706239</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1309524850999518</v>
+        <v>0.07586884872961461</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.546012620553443</v>
+        <v>-2.496056728997262</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.547752266676552</v>
+        <v>-3.67309498010682</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.272262823268526</v>
+        <v>-2.314275441073081</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.713412330567721</v>
+        <v>-2.713519000190412</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.759653116200879</v>
+        <v>-1.789043407814484</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.339072806679074</v>
+        <v>-2.266106112074534</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6997344203484966</v>
+        <v>0.9267142768701034</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.7062282137177494</v>
+        <v>-0.6428782140064202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.751273199163589</v>
+        <v>1.627741464173036</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.274593678429522</v>
+        <v>1.325661332602893</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8575701471800666</v>
+        <v>0.8317067321506533</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.08099545348694878</v>
+        <v>0.04970544356848251</v>
       </c>
     </row>
     <row r="31">
@@ -1353,20 +1349,20 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8951518776459194</v>
       </c>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.7123074944949108</v>
+        <v>-0.7043538808367646</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7856076358156734</v>
+        <v>-0.7821050669489269</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6696756798428228</v>
+        <v>-0.6716646054504573</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8344542144112376</v>
+        <v>-0.8541401886932222</v>
       </c>
     </row>
     <row r="33">
@@ -1377,20 +1373,20 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.340693702557912</v>
+        <v>1.853928827164394</v>
       </c>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>1.594720812548377</v>
+        <v>1.504948946816977</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.177208096223619</v>
+        <v>1.284895197077028</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.764726413673611</v>
+        <v>0.8113569209969391</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1518868692366968</v>
+        <v>0.09751811556394202</v>
       </c>
     </row>
     <row r="34">
@@ -1431,22 +1427,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.09918490337134</v>
+        <v>-1.181138904043855</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.8811831931247772</v>
+        <v>-0.8579185644329438</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.169188034407207</v>
+        <v>-1.274618459983416</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.007473933113344</v>
+        <v>-3.438091494700187</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.8169391486881061</v>
+        <v>-0.7204316698877823</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.592514079044703</v>
+        <v>-1.423216201163572</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1453,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.675152309663079</v>
+        <v>1.433667978533929</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.018477788797289</v>
+        <v>2.069419495783038</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.659568777290688</v>
+        <v>3.51784846230981</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.001997925189356038</v>
+        <v>-0.2711622599265579</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.986297229267848</v>
+        <v>2.015874923274913</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.4121299182423127</v>
+        <v>0.5103040147122362</v>
       </c>
     </row>
     <row r="37">
@@ -1509,20 +1505,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="inlineStr"/>
-      <c r="D38" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6329337521418609</v>
-      </c>
-      <c r="F38" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6731413944363923</v>
+      </c>
+      <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="n">
-        <v>-0.5479724158975882</v>
+        <v>-0.5389864561944957</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8681865694390329</v>
+        <v>-0.8874919528461644</v>
       </c>
     </row>
     <row r="39">
@@ -1535,14 +1527,14 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>5.718927229074372</v>
+        <v>4.886785861020477</v>
       </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="n">
-        <v>3.355392953890962</v>
+        <v>3.608672973049373</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9044203790896546</v>
+        <v>0.9574633742778627</v>
       </c>
     </row>
     <row r="40">
@@ -1587,16 +1579,16 @@
       </c>
       <c r="D41" s="5" t="inlineStr"/>
       <c r="E41" s="5" t="n">
-        <v>-0.06464424154043671</v>
+        <v>0.01099925783807201</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.339811404058241</v>
+        <v>-2.157564346977099</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.19712296785802</v>
+        <v>0.2585958792986119</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.246014216501134</v>
+        <v>-1.375658336487761</v>
       </c>
     </row>
     <row r="42">
@@ -1607,17 +1599,17 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.582060804534894</v>
+        <v>3.268713520476614</v>
       </c>
       <c r="D42" s="5" t="inlineStr"/>
       <c r="E42" s="5" t="n">
-        <v>3.508393423936718</v>
+        <v>3.555184306077881</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.47835479676298</v>
+        <v>2.593761361057336</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>0</v>
@@ -1659,11 +1651,11 @@
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.5965553485207893</v>
+        <v>-0.5070805197138895</v>
       </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="n">
-        <v>-0.2908833008911271</v>
+        <v>-0.4010080176988071</v>
       </c>
       <c r="H44" s="6" t="inlineStr"/>
     </row>
@@ -1719,22 +1711,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.21131036495634</v>
+        <v>-0.2228402383893007</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.632122879429492</v>
+        <v>-1.705955495438767</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.692770044869533</v>
+        <v>-1.839053697628323</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.445216589310237</v>
+        <v>-5.441478349126013</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.6988399293684993</v>
+        <v>-0.6570513005777088</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.302118656366956</v>
+        <v>-3.28256149988485</v>
       </c>
     </row>
     <row r="48">
@@ -1745,22 +1737,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.317570284694427</v>
+        <v>1.238803877077581</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.4311560697714534</v>
+        <v>-0.4754106592013124</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.9252282594893593</v>
+        <v>0.8396041541985717</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-3.22201609182813</v>
+        <v>-3.207557586303284</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7905818759629958</v>
+        <v>0.8414808120918521</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.991661128619407</v>
+        <v>-2.048057147215487</v>
       </c>
     </row>
     <row r="49">
@@ -1797,22 +1789,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1040297280920146</v>
+        <v>-0.09368429509001239</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7005470392394185</v>
+        <v>-0.6993544316456142</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1966904038607445</v>
+        <v>-0.2092539872056561</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.634469733544854</v>
+        <v>-0.6352386791258641</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.128840071156849</v>
+        <v>-0.125700466439456</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6174393791663949</v>
+        <v>-0.6175099220286856</v>
       </c>
     </row>
     <row r="51">
@@ -1823,22 +1815,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8058014214746123</v>
+        <v>0.7600035395630005</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2690628736185146</v>
+        <v>-0.2720622246425086</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1295163521195792</v>
+        <v>0.1194135912556523</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.4443849298221167</v>
+        <v>-0.4509634932585139</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1689994029145588</v>
+        <v>0.186932844855769</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.4343404305367591</v>
+        <v>-0.4408298984570111</v>
       </c>
     </row>
     <row r="52">
